--- a/content/Book Nine 11-20.xlsx
+++ b/content/Book Nine 11-20.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7BE92-B0B1-4FF7-8FA1-AB825F69B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD144B4-9F1E-4784-97A5-1D67EC5082BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="3926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6572" uniqueCount="3947">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -11801,25 +11801,80 @@
     <t>3-PS</t>
   </si>
   <si>
-    <t>SHLOKA 7 AND 8 MISSING</t>
+    <t>गन्धवस्तुषु तद्देहं निधाय मुनिसत्तमा: ।</t>
+  </si>
+  <si>
+    <t>समाप्ते सत्रयोगेऽथ देवानूचु: समागतान् ॥७॥</t>
+  </si>
+  <si>
+    <t>गन्ध-वस्तुषु तत्-देहम्</t>
+  </si>
+  <si>
+    <t>निधाय मुनि-सत्तमा:</t>
+  </si>
+  <si>
+    <t>समाप्ते सत्रयोगे-अथ</t>
+  </si>
+  <si>
+    <t>देवान्-ऊचु: समागतान्</t>
+  </si>
+  <si>
+    <t>in perfumed balms his body</t>
+  </si>
+  <si>
+    <t>placing, the sages foremost,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	on conclusion of the session of sacrifice, then,</t>
+  </si>
+  <si>
+    <t>to the gods said, assembled</t>
+  </si>
+  <si>
+    <t>The foremost sages placed the body of Nimi in perfumed balms, on the conclusion of the sacrifice session, said to the gods assembled there.</t>
+  </si>
+  <si>
+    <t>राज्ञो जीवतु देहोऽयं प्रसन्ना: प्रभवो यदि ।</t>
+  </si>
+  <si>
+    <t>तथेत्युक्ते निमि: प्राह मा भून्मे देहबन्धनम् ॥८॥</t>
+  </si>
+  <si>
+    <t>राज्ञ: जीवतु देह:-अयम्</t>
+  </si>
+  <si>
+    <t>प्रसन्ना: प्रभव: यदि</t>
+  </si>
+  <si>
+    <t>तथा-इति-उक्ते निमि: प्राह</t>
+  </si>
+  <si>
+    <t>मा भूत्-मे देह-बन्धनम्</t>
+  </si>
+  <si>
+    <t>of the king, may live body this,</t>
+  </si>
+  <si>
+    <t>pleased you all are, if,</t>
+  </si>
+  <si>
+    <t>Amen' thus spoken, Nimi called,</t>
+  </si>
+  <si>
+    <t>may not my be body bondage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'If it pleases you all, may this body of the king.' As the sages said 'Amen', Nimi called from the body, 'May  there not be bondage of the body to me.'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11867,7 +11922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12206,9 +12261,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16578,6 +16636,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
@@ -21095,6 +21154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
@@ -22983,10 +23043,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E184"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22999,31 +23060,40 @@
     <col min="6" max="16384" width="92" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="9" t="s">
-        <v>3925</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3917</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3913</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3914</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3916</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3917</v>
+        <v>3918</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -23032,12 +23102,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -23046,38 +23116,38 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>292</v>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -23088,24 +23158,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -23116,13 +23189,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -23133,13 +23206,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>296</v>
+        <v>2003</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>299</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -23150,44 +23223,41 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2003</v>
+        <v>297</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>301</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -23198,24 +23268,27 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>302</v>
+        <v>2005</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -23226,13 +23299,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -23243,13 +23316,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -23260,44 +23333,41 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3921</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3923</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
       <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2013</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -23308,24 +23378,27 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>305</v>
+        <v>2014</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -23336,13 +23409,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -23353,13 +23426,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -23370,44 +23443,41 @@
         <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>2020</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>3923</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
       <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -23418,24 +23488,27 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>307</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2022</v>
+        <v>2023</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -23446,13 +23519,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -23463,13 +23536,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -23480,44 +23553,41 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -23528,24 +23598,27 @@
         <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>309</v>
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>310</v>
+        <v>2031</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -23556,13 +23629,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -23573,13 +23646,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -23590,44 +23663,41 @@
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>311</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -23638,24 +23708,27 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B43" s="1">
         <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>313</v>
+        <v>2039</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -23666,13 +23739,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -23683,13 +23756,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -23700,44 +23773,41 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B47" s="1">
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B48" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2147</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -23748,24 +23818,27 @@
         <v>7</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3926</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B50" s="1">
         <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>315</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3927</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>3931</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -23776,13 +23849,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>2047</v>
+        <v>3928</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>2048</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -23793,13 +23866,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3929</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>2148</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -23810,44 +23883,41 @@
         <v>7</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>317</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3930</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B54" s="1">
         <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B55" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>2149</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -23858,24 +23928,27 @@
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>320</v>
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3937</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B57" s="1">
         <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>321</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3938</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3942</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -23886,13 +23959,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>322</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3939</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>325</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -23903,13 +23976,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>326</v>
+        <v>3</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>3944</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -23920,66 +23993,60 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>323</v>
+        <v>3941</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B61" s="1">
         <v>8</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B62" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>328</v>
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="B63" s="1">
         <v>9</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B64" s="1">
         <v>9</v>
@@ -23987,13 +24054,16 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>331</v>
+      <c r="D64" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B65" s="1">
         <v>9</v>
@@ -24002,7 +24072,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -24013,13 +24086,13 @@
         <v>9</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -24030,66 +24103,60 @@
         <v>9</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B68" s="1">
         <v>9</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>338</v>
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2149</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="B69" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B70" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>339</v>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B71" s="1">
         <v>10</v>
@@ -24098,12 +24165,15 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B72" s="1">
         <v>10</v>
@@ -24112,7 +24182,10 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>341</v>
+        <v>2050</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -24123,13 +24196,13 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2054</v>
+        <v>3</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -24140,61 +24213,58 @@
         <v>10</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2056</v>
+        <v>324</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B75" s="1">
         <v>10</v>
       </c>
       <c r="C75" s="1">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>2059</v>
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>3921</v>
+        <v>3924</v>
       </c>
       <c r="B76" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>342</v>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -24205,24 +24275,27 @@
         <v>11</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B79" s="1">
         <v>11</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -24233,13 +24306,13 @@
         <v>11</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>2060</v>
+        <v>333</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>2061</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -24250,13 +24323,13 @@
         <v>11</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>2062</v>
+        <v>335</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>2150</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -24267,44 +24340,41 @@
         <v>11</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>348</v>
+        <v>2052</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B83" s="1">
         <v>11</v>
       </c>
       <c r="C83" s="1">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B84" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>350</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -24315,24 +24385,27 @@
         <v>12</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B86" s="1">
         <v>12</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>352</v>
+        <v>2054</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2055</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -24343,13 +24416,13 @@
         <v>12</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -24360,13 +24433,13 @@
         <v>12</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -24377,44 +24450,41 @@
         <v>12</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>2068</v>
+        <v>4</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B90" s="1">
         <v>12</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>2070</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B91" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>353</v>
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -24425,24 +24495,27 @@
         <v>13</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B93" s="1">
         <v>13</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>355</v>
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -24453,13 +24526,13 @@
         <v>13</v>
       </c>
       <c r="C94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>2072</v>
+        <v>2062</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>2073</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -24470,13 +24543,13 @@
         <v>13</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>2074</v>
+        <v>348</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2075</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -24487,44 +24560,41 @@
         <v>13</v>
       </c>
       <c r="C96" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B97" s="1">
         <v>13</v>
       </c>
       <c r="C97" s="1">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B98" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>2151</v>
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -24535,24 +24605,27 @@
         <v>14</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B100" s="1">
         <v>14</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>358</v>
+        <v>2064</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -24563,13 +24636,13 @@
         <v>14</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>2079</v>
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>2065</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>2080</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -24580,13 +24653,13 @@
         <v>14</v>
       </c>
       <c r="C102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>2081</v>
+        <v>2068</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>2082</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -24597,44 +24670,41 @@
         <v>14</v>
       </c>
       <c r="C103" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>2083</v>
+        <v>2070</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B104" s="1">
         <v>14</v>
       </c>
       <c r="C104" s="1">
-        <v>4</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B105" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>2087</v>
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -24645,24 +24715,27 @@
         <v>15</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>359</v>
+        <v>2</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B107" s="1">
         <v>15</v>
       </c>
       <c r="C107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>360</v>
+        <v>2072</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -24673,13 +24746,13 @@
         <v>15</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>2088</v>
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>2074</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>2090</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -24690,13 +24763,13 @@
         <v>15</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>2089</v>
+        <v>356</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>2091</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -24707,44 +24780,41 @@
         <v>15</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>2092</v>
+        <v>2077</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B111" s="1">
         <v>15</v>
       </c>
       <c r="C111" s="1">
-        <v>4</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B112" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>363</v>
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -24755,24 +24825,27 @@
         <v>16</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B114" s="1">
         <v>16</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>367</v>
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>2080</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -24783,13 +24856,13 @@
         <v>16</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>365</v>
+        <v>2081</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>368</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -24800,13 +24873,13 @@
         <v>16</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>366</v>
+        <v>2083</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>369</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -24817,44 +24890,41 @@
         <v>16</v>
       </c>
       <c r="C117" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B118" s="1">
         <v>16</v>
       </c>
       <c r="C118" s="1">
-        <v>4</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>2096</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B119" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>370</v>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -24865,24 +24935,27 @@
         <v>17</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B121" s="1">
         <v>17</v>
       </c>
       <c r="C121" s="1">
-        <v>2</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>372</v>
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>2090</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -24893,13 +24966,13 @@
         <v>17</v>
       </c>
       <c r="C122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -24910,13 +24983,13 @@
         <v>17</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -24927,44 +25000,41 @@
         <v>17</v>
       </c>
       <c r="C124" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>2102</v>
+        <v>361</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B125" s="1">
         <v>17</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B126" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>375</v>
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -24975,24 +25045,27 @@
         <v>18</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B128" s="1">
         <v>18</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -25003,13 +25076,13 @@
         <v>18</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -25020,13 +25093,13 @@
         <v>18</v>
       </c>
       <c r="C130" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>379</v>
+        <v>2094</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -25037,44 +25110,41 @@
         <v>18</v>
       </c>
       <c r="C131" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>380</v>
+        <v>2096</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B132" s="1">
         <v>18</v>
       </c>
       <c r="C132" s="1">
-        <v>4</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B133" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>2104</v>
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -25085,24 +25155,27 @@
         <v>19</v>
       </c>
       <c r="C134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>2106</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B135" s="1">
         <v>19</v>
       </c>
       <c r="C135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>385</v>
+        <v>2098</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -25113,13 +25186,13 @@
         <v>19</v>
       </c>
       <c r="C136" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>387</v>
+        <v>2099</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>391</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -25130,13 +25203,13 @@
         <v>19</v>
       </c>
       <c r="C137" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>386</v>
+        <v>2102</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>389</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -25147,44 +25220,41 @@
         <v>19</v>
       </c>
       <c r="C138" s="1">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>2107</v>
+        <v>4</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B139" s="1">
         <v>19</v>
       </c>
       <c r="C139" s="1">
-        <v>4</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B140" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C140" s="1">
-        <v>0</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>392</v>
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -25195,24 +25265,27 @@
         <v>20</v>
       </c>
       <c r="C141" s="1">
-        <v>1</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>393</v>
+        <v>2</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B142" s="1">
         <v>20</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>394</v>
+        <v>378</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -25223,13 +25296,13 @@
         <v>20</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>2109</v>
+        <v>379</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2152</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -25240,13 +25313,13 @@
         <v>20</v>
       </c>
       <c r="C144" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>2110</v>
+        <v>380</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -25257,44 +25330,41 @@
         <v>20</v>
       </c>
       <c r="C145" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B146" s="1">
         <v>20</v>
       </c>
       <c r="C146" s="1">
-        <v>4</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B147" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>2112</v>
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>2106</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -25305,24 +25375,27 @@
         <v>21</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B149" s="1">
         <v>21</v>
       </c>
       <c r="C149" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -25333,13 +25406,13 @@
         <v>21</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2113</v>
+        <v>386</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2153</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -25350,13 +25423,13 @@
         <v>21</v>
       </c>
       <c r="C151" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -25367,44 +25440,41 @@
         <v>21</v>
       </c>
       <c r="C152" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>2116</v>
+        <v>388</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B153" s="1">
         <v>21</v>
       </c>
       <c r="C153" s="1">
-        <v>4</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B154" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -25415,24 +25485,27 @@
         <v>22</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B156" s="1">
         <v>22</v>
       </c>
       <c r="C156" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>403</v>
+        <v>2109</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>2152</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -25443,13 +25516,13 @@
         <v>22</v>
       </c>
       <c r="C157" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -25460,13 +25533,13 @@
         <v>22</v>
       </c>
       <c r="C158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>2122</v>
+        <v>395</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>2123</v>
+        <v>397</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -25477,44 +25550,41 @@
         <v>22</v>
       </c>
       <c r="C159" s="1">
-        <v>3</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>2124</v>
+        <v>4</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B160" s="1">
         <v>22</v>
       </c>
       <c r="C160" s="1">
-        <v>4</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B161" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161" s="1">
-        <v>0</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>404</v>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -25525,24 +25595,27 @@
         <v>23</v>
       </c>
       <c r="C162" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B163" s="1">
         <v>23</v>
       </c>
       <c r="C163" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>406</v>
+        <v>2113</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>2153</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -25553,13 +25626,13 @@
         <v>23</v>
       </c>
       <c r="C164" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>2128</v>
+        <v>2114</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>2129</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -25570,13 +25643,13 @@
         <v>23</v>
       </c>
       <c r="C165" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>2130</v>
+        <v>2116</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>2131</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -25587,44 +25660,41 @@
         <v>23</v>
       </c>
       <c r="C166" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>2132</v>
+        <v>2118</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B167" s="1">
         <v>23</v>
       </c>
       <c r="C167" s="1">
-        <v>4</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B168" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C168" s="1">
-        <v>0</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>409</v>
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -25635,24 +25705,27 @@
         <v>24</v>
       </c>
       <c r="C169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B170" s="1">
         <v>24</v>
       </c>
       <c r="C170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>411</v>
+        <v>2120</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -25663,13 +25736,13 @@
         <v>24</v>
       </c>
       <c r="C171" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>2134</v>
+        <v>2122</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -25680,13 +25753,13 @@
         <v>24</v>
       </c>
       <c r="C172" s="1">
-        <v>2</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>2136</v>
+        <v>3</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>2124</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>2137</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -25697,44 +25770,41 @@
         <v>24</v>
       </c>
       <c r="C173" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B174" s="1">
         <v>24</v>
       </c>
       <c r="C174" s="1">
-        <v>4</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B175" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C175" s="1">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>412</v>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -25745,24 +25815,27 @@
         <v>25</v>
       </c>
       <c r="C176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>2142</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B177" s="1">
         <v>25</v>
       </c>
       <c r="C177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>413</v>
+        <v>2128</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -25773,13 +25846,13 @@
         <v>25</v>
       </c>
       <c r="C178" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>414</v>
+        <v>2130</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>416</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -25790,13 +25863,13 @@
         <v>25</v>
       </c>
       <c r="C179" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>2143</v>
+        <v>2132</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>417</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -25807,44 +25880,41 @@
         <v>25</v>
       </c>
       <c r="C180" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="B181" s="1">
         <v>25</v>
       </c>
       <c r="C181" s="1">
-        <v>4</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="B182" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C182" s="1">
-        <v>0</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>419</v>
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -25855,23 +25925,229 @@
         <v>26</v>
       </c>
       <c r="C183" s="1">
-        <v>1</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="B184" s="1">
         <v>26</v>
       </c>
       <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B185" s="1">
+        <v>26</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B186" s="1">
+        <v>26</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B187" s="1">
+        <v>26</v>
+      </c>
+      <c r="C187" s="1">
+        <v>4</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B188" s="1">
+        <v>26</v>
+      </c>
+      <c r="C188" s="1">
         <v>0</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D188" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B189" s="1">
+        <v>27</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B190" s="1">
+        <v>27</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B191" s="1">
+        <v>27</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B192" s="1">
+        <v>27</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B193" s="1">
+        <v>27</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B194" s="1">
+        <v>27</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B195" s="1">
+        <v>27</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B196" s="1">
+        <v>28</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B197" s="1">
+        <v>28</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -25883,6 +26159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E360"/>
   <sheetViews>
     <sheetView topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
@@ -31565,6 +31842,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
@@ -36523,6 +36801,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
@@ -40769,6 +41048,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
@@ -42976,6 +43256,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
@@ -48861,6 +49142,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
